--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>测试报告总概况</t>
   </si>
   <si>
-    <t>XXXX项目</t>
+    <t>自动化测试项目</t>
   </si>
   <si>
     <t>测试日期</t>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2019-12-16 14:10:18</t>
-  </si>
-  <si>
-    <t>20秒</t>
+    <t>2019-12-17 18:40:11</t>
+  </si>
+  <si>
+    <t>83秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -47,7 +47,7 @@
     <t>脚本版本</t>
   </si>
   <si>
-    <t>2018.4.28</t>
+    <t>2019.4.28</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -86,64 +86,47 @@
     <t>test001</t>
   </si>
   <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t>testALoginFail</t>
-  </si>
-  <si>
-    <t>打开testerhome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击登录
-输入用户名lose1
-输入密码1231231232
-点击登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出现错误的密码登录不成功提示框
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
     <t>登录成功</t>
   </si>
   <si>
-    <t>testBLogin</t>
+    <t>testALogin</t>
+  </si>
+  <si>
+    <t>打开</t>
   </si>
   <si>
     <t xml:space="preserve">点击登录
 输入用户名
 输入密码
 点击登录
-点击图像
 </t>
   </si>
   <si>
-    <t xml:space="preserve">查找用户名成功
+    <t xml:space="preserve">登录成功
 </t>
   </si>
   <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>热门话题</t>
-  </si>
-  <si>
-    <t>testHotTopic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击图像
-点击用户名
-获取热门话题下的第一条标题
-点击热门话题下的第一条标题
+    <t>test002</t>
+  </si>
+  <si>
+    <t>下订单</t>
+  </si>
+  <si>
+    <t>testBPlaceOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向下滑动
+向下滑动
+点击商品加入购物车
+进入购物车
+点击购物车
+减去商品
+点击结算
+点击继续付款
 </t>
   </si>
   <si>
-    <t xml:space="preserve">详情页的标题和历史标题相等
+    <t xml:space="preserve">提交订单成功
 </t>
   </si>
 </sst>
@@ -302,7 +285,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -368,6 +351,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1268730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="登录成功CheckPoint_1_OK.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="695325"/>
+          <a:ext cx="3657600" cy="1268730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1268730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="下订单CheckPoint_2_OK.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="2085975"/>
+          <a:ext cx="3657600" cy="1268730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -697,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
@@ -719,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -746,7 +810,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -754,8 +818,8 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -772,7 +836,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
+    <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -801,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -828,7 +892,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
+    <row r="4" spans="1:10" ht="110" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -842,7 +906,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>31</v>
@@ -855,43 +919,18 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="40" customHeight="1"/>
+    <row r="6" spans="1:10" ht="40" customHeight="1"/>
+    <row r="7" spans="1:10" ht="40" customHeight="1"/>
+    <row r="8" spans="1:10" ht="40" customHeight="1"/>
+    <row r="9" spans="1:10" ht="40" customHeight="1"/>
+    <row r="10" spans="1:10" ht="40" customHeight="1"/>
+    <row r="11" spans="1:10" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>